--- a/data/trans_orig/P1428-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0FC334-FDD3-4E4F-868C-34FABF472850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28DB7F4-630A-4B16-80E8-3B29D0A07A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2060AAC1-E584-4D7B-9583-A32634AB0899}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8147A4AC-108B-4D16-8887-B179030FA8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="466">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,19 +95,19 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>12,77%</t>
@@ -116,7 +116,7 @@
     <t>8,96%</t>
   </si>
   <si>
-    <t>17,72%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,25 +125,25 @@
     <t>92,33%</t>
   </si>
   <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>82,37%</t>
   </si>
   <si>
     <t>91,04%</t>
@@ -167,55 +167,55 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>87,41%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -230,985 +230,973 @@
     <t>7,65%</t>
   </si>
   <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>13,1%</t>
@@ -1217,199 +1205,190 @@
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>96,67%</t>
   </si>
   <si>
     <t>86,53%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>94,97%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>83,98%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
+    <t>81,64%</t>
   </si>
   <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -1418,49 +1397,46 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06612B-8F9D-4F65-AB2C-52551DD9FAFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543ADD13-36B9-4DF8-8E03-990CCF6E533A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2701,7 +2677,7 @@
         <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2692,13 @@
         <v>631026</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>573</v>
@@ -2731,13 +2707,13 @@
         <v>561581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1165</v>
@@ -2746,13 +2722,13 @@
         <v>1192607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,7 +2784,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2826,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2841,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2856,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2847,13 @@
         <v>72482</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>167</v>
@@ -2886,13 +2862,13 @@
         <v>176652</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>247</v>
@@ -2901,13 +2877,13 @@
         <v>249134</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2898,13 @@
         <v>869740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>830</v>
@@ -2937,13 +2913,13 @@
         <v>861960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1744</v>
@@ -2952,13 +2928,13 @@
         <v>1731700</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3047,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3062,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3053,13 @@
         <v>236558</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>577</v>
@@ -3092,13 +3068,13 @@
         <v>596553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>822</v>
@@ -3107,13 +3083,13 @@
         <v>833111</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3104,13 @@
         <v>3039986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>2720</v>
@@ -3143,28 +3119,28 @@
         <v>2782645</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>5689</v>
       </c>
       <c r="N26" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,7 +3182,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3220,7 +3196,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3241,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DDDF2-8344-45B8-B386-DBCD591D9641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCE817-1CC6-4AD6-A98D-CC470297E5F1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3371,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3386,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3401,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3392,13 @@
         <v>6030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -3431,13 +3407,13 @@
         <v>19352</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -3446,13 +3422,13 @@
         <v>25382</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3443,13 @@
         <v>109735</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H6" s="7">
         <v>82</v>
@@ -3482,13 +3458,13 @@
         <v>92553</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>197</v>
@@ -3497,13 +3473,13 @@
         <v>202288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3592,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3622,13 +3598,13 @@
         <v>35559</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -3637,13 +3613,13 @@
         <v>75889</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -3652,13 +3628,13 @@
         <v>111448</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3649,13 @@
         <v>552145</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -3688,13 +3664,13 @@
         <v>509256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>1002</v>
@@ -3703,13 +3679,13 @@
         <v>1061401</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3798,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3813,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3804,13 @@
         <v>64566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -3843,13 +3819,13 @@
         <v>126924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -3858,13 +3834,13 @@
         <v>191490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3855,13 @@
         <v>953381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>822</v>
@@ -3894,10 +3870,10 @@
         <v>902049</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>198</v>
@@ -4037,10 +4013,10 @@
         <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4049,13 +4025,13 @@
         <v>84143</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4064,13 +4040,13 @@
         <v>110748</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4061,13 @@
         <v>731017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="H18" s="7">
         <v>629</v>
@@ -4100,13 +4076,13 @@
         <v>693031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1295</v>
@@ -4115,13 +4091,13 @@
         <v>1424049</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4153,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4210,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4225,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4216,13 @@
         <v>43542</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -4258,10 +4234,10 @@
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -4270,13 +4246,13 @@
         <v>177913</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4267,13 @@
         <v>904197</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -4309,10 +4285,10 @@
         <v>33</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>1747</v>
@@ -4321,13 +4297,13 @@
         <v>1821727</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4416,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4431,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4422,13 @@
         <v>176304</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>405</v>
@@ -4461,13 +4437,13 @@
         <v>440677</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>565</v>
@@ -4476,13 +4452,13 @@
         <v>616981</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4473,13 @@
         <v>3250475</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H26" s="7">
         <v>2891</v>
@@ -4512,28 +4488,28 @@
         <v>3114421</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>5940</v>
       </c>
       <c r="N26" s="7">
-        <v>6364896</v>
+        <v>6364897</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4551,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4589,7 +4565,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4610,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA524D3B-43E6-4B11-BCAE-C704CA05AAB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBBA7F-714E-48F4-AC44-C4FFE25EB601}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4627,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4740,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4755,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4770,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +4761,13 @@
         <v>7864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4800,13 +4776,13 @@
         <v>12877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4815,13 +4791,13 @@
         <v>20741</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4812,13 @@
         <v>108682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4851,13 +4827,13 @@
         <v>100483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>208</v>
@@ -4866,13 +4842,13 @@
         <v>209165</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4961,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4976,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +4967,13 @@
         <v>21760</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -5006,13 +4982,13 @@
         <v>68482</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>85</v>
@@ -5021,13 +4997,13 @@
         <v>90242</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,13 +5018,13 @@
         <v>536494</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>488</v>
@@ -5057,13 +5033,13 @@
         <v>490997</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>1005</v>
@@ -5072,13 +5048,13 @@
         <v>1027491</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5167,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5182,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5173,13 @@
         <v>34613</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5212,13 +5188,13 @@
         <v>111179</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5227,13 +5203,13 @@
         <v>145791</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5224,13 @@
         <v>987818</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>880</v>
@@ -5263,13 +5239,13 @@
         <v>931734</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1796</v>
@@ -5278,13 +5254,13 @@
         <v>1919553</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5388,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5379,13 @@
         <v>29169</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -5418,13 +5394,13 @@
         <v>59320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -5433,13 +5409,13 @@
         <v>88489</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5430,13 @@
         <v>730383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>684</v>
@@ -5469,13 +5445,13 @@
         <v>725691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>1352</v>
@@ -5484,13 +5460,13 @@
         <v>1456074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,7 +5522,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5579,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5594,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5585,13 @@
         <v>28539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -5624,13 +5600,13 @@
         <v>80225</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -5639,13 +5615,13 @@
         <v>108764</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5636,13 @@
         <v>909028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>892</v>
@@ -5675,13 +5651,13 @@
         <v>963554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>1796</v>
@@ -5690,13 +5666,13 @@
         <v>1872582</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5785,7 +5761,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5800,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5791,13 @@
         <v>121945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -5830,13 +5806,13 @@
         <v>332083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M25" s="7">
         <v>412</v>
@@ -5845,13 +5821,13 @@
         <v>454028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5842,13 @@
         <v>3272405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>347</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>3046</v>
@@ -5881,13 +5857,13 @@
         <v>3212459</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>6157</v>
@@ -5896,13 +5872,13 @@
         <v>6484864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,7 +5934,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +5955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3016B5-FDDB-4204-8E47-989F529C7E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F3B065-DBCD-4674-8F7C-DDC6807CAEC9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5996,7 +5972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6109,7 +6085,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6124,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6139,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6130,13 @@
         <v>10780</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>68</v>
@@ -6169,13 +6145,13 @@
         <v>31970</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>84</v>
@@ -6184,13 +6160,13 @@
         <v>42750</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6181,13 @@
         <v>91202</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>175</v>
@@ -6220,13 +6196,13 @@
         <v>98763</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>277</v>
@@ -6235,13 +6211,13 @@
         <v>189965</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6324,13 +6300,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>61</v>
+        <v>375</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6339,13 +6315,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>379</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6336,13 @@
         <v>27245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H9" s="7">
         <v>216</v>
@@ -6375,13 +6351,13 @@
         <v>105916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M9" s="7">
         <v>255</v>
@@ -6390,13 +6366,13 @@
         <v>133161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6387,13 @@
         <v>521687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H10" s="7">
         <v>777</v>
@@ -6426,13 +6402,13 @@
         <v>485353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>1349</v>
@@ -6441,13 +6417,13 @@
         <v>1007039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6530,13 +6506,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6545,13 +6521,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6542,13 @@
         <v>46758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>253</v>
@@ -6581,13 +6557,13 @@
         <v>140787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>405</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -6599,10 +6575,10 @@
         <v>24</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6593,13 @@
         <v>990292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>1253</v>
@@ -6632,28 +6608,28 @@
         <v>912866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>2152</v>
       </c>
       <c r="N14" s="7">
-        <v>1903159</v>
+        <v>1903158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,7 +6671,7 @@
         <v>2470</v>
       </c>
       <c r="N15" s="7">
-        <v>2092027</v>
+        <v>2092026</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -6742,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6772,13 +6748,13 @@
         <v>39517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>137</v>
@@ -6787,13 +6763,13 @@
         <v>193318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -6802,13 +6778,13 @@
         <v>232836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6799,13 @@
         <v>687407</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>901</v>
@@ -6838,13 +6814,13 @@
         <v>674294</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>1532</v>
@@ -6853,13 +6829,13 @@
         <v>1361700</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,7 +6891,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6933,7 +6909,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6942,13 +6918,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6957,13 +6933,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,13 +6954,13 @@
         <v>61255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="H21" s="7">
         <v>284</v>
@@ -6993,13 +6969,13 @@
         <v>181299</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M21" s="7">
         <v>363</v>
@@ -7008,13 +6984,13 @@
         <v>242554</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7005,13 @@
         <v>900871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H22" s="7">
         <v>1275</v>
@@ -7044,13 +7020,13 @@
         <v>965168</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>451</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>2199</v>
@@ -7059,13 +7035,13 @@
         <v>1866038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7151,10 +7127,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7163,13 +7139,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,13 +7160,13 @@
         <v>185555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>453</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H25" s="7">
         <v>958</v>
@@ -7199,13 +7175,13 @@
         <v>653290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>462</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>1198</v>
@@ -7214,13 +7190,13 @@
         <v>838845</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,13 +7211,13 @@
         <v>3191459</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>4381</v>
@@ -7250,13 +7226,13 @@
         <v>3136443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>7509</v>
@@ -7265,13 +7241,13 @@
         <v>6327902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,7 +7303,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28DB7F4-630A-4B16-80E8-3B29D0A07A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{440D8679-234A-4673-B84D-A2D1CEAEE068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8147A4AC-108B-4D16-8887-B179030FA8A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16D98EA2-8A2D-480C-8BF4-AF8C899A8674}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="467">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -95,1285 +95,1288 @@
     <t>7,67%</t>
   </si>
   <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>96,41%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>85,83%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
   </si>
   <si>
     <t>88,38%</t>
@@ -1848,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543ADD13-36B9-4DF8-8E03-990CCF6E533A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D7F94E-07E0-49B9-B95E-A907456DF6D0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3101,7 +3104,7 @@
         <v>2969</v>
       </c>
       <c r="D26" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>134</v>
@@ -3152,7 +3155,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3217,7 +3220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DCE817-1CC6-4AD6-A98D-CC470297E5F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B99D02-3F1B-45EE-A27F-D38DC665740A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,13 +3601,13 @@
         <v>35559</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -3613,13 +3616,13 @@
         <v>75889</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>101</v>
@@ -3628,13 +3631,13 @@
         <v>111448</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3652,13 @@
         <v>552145</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>482</v>
@@ -3664,13 +3667,13 @@
         <v>509256</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>1002</v>
@@ -3679,13 +3682,13 @@
         <v>1061401</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3774,7 +3777,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3804,13 +3807,13 @@
         <v>64566</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>116</v>
@@ -3819,13 +3822,13 @@
         <v>126924</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -3834,13 +3837,13 @@
         <v>191490</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3858,13 @@
         <v>953381</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H14" s="7">
         <v>822</v>
@@ -3870,10 +3873,10 @@
         <v>902049</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>198</v>
@@ -4013,10 +4016,10 @@
         <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4025,13 +4028,13 @@
         <v>84143</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4043,10 +4046,10 @@
         <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4064,13 @@
         <v>731017</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7">
         <v>629</v>
@@ -4076,13 +4079,13 @@
         <v>693031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M18" s="7">
         <v>1295</v>
@@ -4094,10 +4097,10 @@
         <v>134</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4219,13 @@
         <v>43542</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>127</v>
@@ -4234,10 +4237,10 @@
         <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -4246,13 +4249,13 @@
         <v>177913</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4270,13 @@
         <v>904197</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>876</v>
@@ -4285,10 +4288,10 @@
         <v>33</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>1747</v>
@@ -4297,13 +4300,13 @@
         <v>1821727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4425,13 @@
         <v>176304</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>405</v>
@@ -4437,13 +4440,13 @@
         <v>440677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>565</v>
@@ -4452,13 +4455,13 @@
         <v>616981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4476,13 @@
         <v>3250475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H26" s="7">
         <v>2891</v>
@@ -4488,28 +4491,28 @@
         <v>3114421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>5940</v>
       </c>
       <c r="N26" s="7">
-        <v>6364897</v>
+        <v>6364896</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4554,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4586,7 +4589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBBA7F-714E-48F4-AC44-C4FFE25EB601}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE8C258-63A1-4359-9A62-801C5F406452}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,7 +4606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4716,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4731,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4746,7 +4749,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4764,13 @@
         <v>7864</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4776,13 +4779,13 @@
         <v>12877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -4791,13 +4794,13 @@
         <v>20741</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4815,13 @@
         <v>108682</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -4827,13 +4830,13 @@
         <v>100483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>208</v>
@@ -4842,13 +4845,13 @@
         <v>209165</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4952,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4970,13 @@
         <v>21760</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7">
         <v>63</v>
@@ -4982,13 +4985,13 @@
         <v>68482</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
         <v>85</v>
@@ -4997,13 +5000,13 @@
         <v>90242</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5021,13 @@
         <v>536494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>488</v>
@@ -5033,13 +5036,13 @@
         <v>490997</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>1005</v>
@@ -5048,13 +5051,13 @@
         <v>1027491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5131,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5143,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5173,13 +5176,13 @@
         <v>34613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5188,13 +5191,13 @@
         <v>111179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -5203,13 +5206,13 @@
         <v>145791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5227,13 @@
         <v>987818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>880</v>
@@ -5239,13 +5242,13 @@
         <v>931734</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>1796</v>
@@ -5254,10 +5257,10 @@
         <v>1919553</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>304</v>
@@ -5394,7 +5397,7 @@
         <v>59320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>310</v>
@@ -5412,10 +5415,10 @@
         <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5433,13 @@
         <v>730383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>684</v>
@@ -5445,13 +5448,13 @@
         <v>725691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>1352</v>
@@ -5460,13 +5463,13 @@
         <v>1456074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5585,13 +5588,13 @@
         <v>28539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -5603,10 +5606,10 @@
         <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>241</v>
       </c>
       <c r="M21" s="7">
         <v>95</v>
@@ -5615,13 +5618,13 @@
         <v>108764</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5639,13 @@
         <v>909028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>892</v>
@@ -5654,7 +5657,7 @@
         <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>332</v>
+        <v>249</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>333</v>
@@ -5791,13 +5794,13 @@
         <v>121945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -5824,7 +5827,7 @@
         <v>342</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>343</v>
@@ -5842,10 +5845,10 @@
         <v>3272405</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>345</v>
@@ -5878,7 +5881,7 @@
         <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,7 +5958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F3B065-DBCD-4674-8F7C-DDC6807CAEC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A67981B-4299-4BC6-BDF1-456922AF2F56}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6315,13 +6318,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6339,13 @@
         <v>27245</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H9" s="7">
         <v>216</v>
@@ -6351,13 +6354,13 @@
         <v>105916</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>255</v>
@@ -6366,13 +6369,13 @@
         <v>133161</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6390,13 @@
         <v>521687</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H10" s="7">
         <v>777</v>
@@ -6402,13 +6405,13 @@
         <v>485353</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M10" s="7">
         <v>1349</v>
@@ -6417,13 +6420,13 @@
         <v>1007039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,7 +6500,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6512,7 +6515,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6527,7 +6530,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,10 +6545,10 @@
         <v>46758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>312</v>
@@ -6557,13 +6560,13 @@
         <v>140787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>316</v>
@@ -6572,13 +6575,13 @@
         <v>187545</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6596,13 @@
         <v>990292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>1253</v>
@@ -6608,13 +6611,13 @@
         <v>912866</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>2152</v>
@@ -6623,10 +6626,10 @@
         <v>1903158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>410</v>
@@ -6718,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7026,7 +7029,7 @@
         <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>2199</v>
@@ -7035,13 +7038,13 @@
         <v>1866038</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,10 +7130,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7139,13 +7142,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7163,13 @@
         <v>185555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>958</v>
@@ -7175,13 +7178,13 @@
         <v>653290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M25" s="7">
         <v>1198</v>
@@ -7190,10 +7193,10 @@
         <v>838845</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>151</v>
@@ -7214,10 +7217,10 @@
         <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>4381</v>
@@ -7226,13 +7229,13 @@
         <v>3136443</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>7509</v>
@@ -7241,13 +7244,13 @@
         <v>6327902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1428-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39EE173-DF92-441E-AFC7-E4342913D1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C2C192-FD3B-4FEB-A822-E633D0C73251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D89B60D-6274-461D-8333-A819E736A474}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BDE45C78-87A4-46C1-AC23-86EB89400B36}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1258 +68,1045 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,59%)</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,59%)</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1CF6C2-DE33-4AA3-A486-EC6053AC49D9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA2588D-C037-432B-8981-0C4958246231}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1849,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>8852</v>
+        <v>43060</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1864,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I4" s="7">
-        <v>20269</v>
+        <v>131332</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1879,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="N4" s="7">
-        <v>29121</v>
+        <v>174393</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1900,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>97</v>
+        <v>639</v>
       </c>
       <c r="D5" s="7">
-        <v>106506</v>
+        <v>650952</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1915,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>104</v>
+        <v>563</v>
       </c>
       <c r="I5" s="7">
-        <v>92486</v>
+        <v>557019</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1930,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>201</v>
+        <v>1202</v>
       </c>
       <c r="N5" s="7">
-        <v>198992</v>
+        <v>1207970</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1951,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1966,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1981,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>34208</v>
+        <v>73532</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2019,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="I7" s="7">
-        <v>111063</v>
+        <v>166309</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2034,19 +1821,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="N7" s="7">
-        <v>145272</v>
+        <v>239841</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,49 +1842,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>542</v>
+        <v>824</v>
       </c>
       <c r="D8" s="7">
-        <v>544446</v>
+        <v>888268</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>754</v>
+      </c>
+      <c r="I8" s="7">
+        <v>802084</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>459</v>
-      </c>
-      <c r="I8" s="7">
-        <v>464533</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1578</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1690352</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>1001</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1008978</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2121,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2136,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2153,55 +1940,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>73532</v>
+        <v>47483</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>123</v>
+      </c>
+      <c r="I10" s="7">
+        <v>122260</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>166309</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>172</v>
+      </c>
+      <c r="N10" s="7">
+        <v>169743</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>226</v>
-      </c>
-      <c r="N10" s="7">
-        <v>239841</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,49 +1997,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>824</v>
+        <v>592</v>
       </c>
       <c r="D11" s="7">
-        <v>888268</v>
+        <v>631026</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>573</v>
+      </c>
+      <c r="I11" s="7">
+        <v>561581</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>754</v>
-      </c>
-      <c r="I11" s="7">
-        <v>802084</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1165</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1192607</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1578</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1690352</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2276,10 +2063,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2308,55 +2095,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>47483</v>
+        <v>72482</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>167</v>
+      </c>
+      <c r="I13" s="7">
+        <v>176652</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>123</v>
-      </c>
-      <c r="I13" s="7">
-        <v>122260</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>247</v>
+      </c>
+      <c r="N13" s="7">
+        <v>249134</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>172</v>
-      </c>
-      <c r="N13" s="7">
-        <v>169743</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,46 +2152,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>592</v>
+        <v>914</v>
       </c>
       <c r="D14" s="7">
-        <v>631026</v>
+        <v>869740</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>830</v>
+      </c>
+      <c r="I14" s="7">
+        <v>861960</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>573</v>
-      </c>
-      <c r="I14" s="7">
-        <v>561581</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1744</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1731700</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>1165</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1192607</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2416,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2431,10 +2218,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2463,55 +2250,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="D16" s="7">
-        <v>72482</v>
+        <v>236558</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>577</v>
+      </c>
+      <c r="I16" s="7">
+        <v>596553</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>167</v>
-      </c>
-      <c r="I16" s="7">
-        <v>176652</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>822</v>
+      </c>
+      <c r="N16" s="7">
+        <v>833111</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="7">
-        <v>247</v>
-      </c>
-      <c r="N16" s="7">
-        <v>249134</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2307,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>914</v>
+        <v>2969</v>
       </c>
       <c r="D17" s="7">
-        <v>869740</v>
+        <v>3039985</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2720</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2782644</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>830</v>
-      </c>
-      <c r="I17" s="7">
-        <v>861960</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5689</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5822630</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1744</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1731700</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2586,10 +2373,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2601,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2617,171 +2404,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>245</v>
-      </c>
-      <c r="D19" s="7">
-        <v>236558</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>577</v>
-      </c>
-      <c r="I19" s="7">
-        <v>596553</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>822</v>
-      </c>
-      <c r="N19" s="7">
-        <v>833111</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2969</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3039986</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2720</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2782645</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5689</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5822629</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2794,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CF0BB0-439E-463C-96D2-9974D8AED364}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9CB60-4D13-4A1B-B0E8-5E6CD117D900}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2811,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2912,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>6030</v>
+        <v>41590</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
+        <v>86</v>
+      </c>
+      <c r="I4" s="7">
+        <v>95240</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M4" s="7">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19352</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
       <c r="N4" s="7">
-        <v>25382</v>
+        <v>136830</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>635</v>
+      </c>
+      <c r="D5" s="7">
+        <v>661879</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="7">
-        <v>109735</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="I5" s="7">
-        <v>92553</v>
+        <v>601810</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>197</v>
+        <v>1199</v>
       </c>
       <c r="N5" s="7">
-        <v>202288</v>
+        <v>1263689</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3029,10 +2660,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3044,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3067,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D7" s="7">
-        <v>35559</v>
+        <v>64566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="I7" s="7">
-        <v>75889</v>
+        <v>126924</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="N7" s="7">
-        <v>111448</v>
+        <v>191490</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>520</v>
+        <v>877</v>
       </c>
       <c r="D8" s="7">
-        <v>552145</v>
+        <v>953381</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>482</v>
+        <v>822</v>
       </c>
       <c r="I8" s="7">
-        <v>509256</v>
+        <v>902049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1002</v>
+        <v>1699</v>
       </c>
       <c r="N8" s="7">
-        <v>1061401</v>
+        <v>1855431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3184,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3199,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3216,55 +2847,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>64566</v>
+        <v>26606</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>126924</v>
+        <v>84143</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>191490</v>
+        <v>110748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>877</v>
+        <v>666</v>
       </c>
       <c r="D11" s="7">
-        <v>953381</v>
+        <v>731017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>822</v>
+        <v>629</v>
       </c>
       <c r="I11" s="7">
-        <v>902049</v>
+        <v>693031</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1699</v>
+        <v>1295</v>
       </c>
       <c r="N11" s="7">
-        <v>1855430</v>
+        <v>1424049</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3339,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3354,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3371,55 +3002,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>26606</v>
+        <v>43542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="I13" s="7">
-        <v>84143</v>
+        <v>134370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>110748</v>
+        <v>177913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>666</v>
+        <v>871</v>
       </c>
       <c r="D14" s="7">
-        <v>731017</v>
+        <v>904197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>629</v>
+        <v>876</v>
       </c>
       <c r="I14" s="7">
-        <v>693031</v>
+        <v>917531</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
-        <v>1295</v>
+        <v>1747</v>
       </c>
       <c r="N14" s="7">
-        <v>1424049</v>
+        <v>1821727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3494,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3509,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3526,55 +3157,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="D16" s="7">
-        <v>43542</v>
+        <v>176304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>127</v>
+        <v>405</v>
       </c>
       <c r="I16" s="7">
-        <v>134370</v>
+        <v>440677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>166</v>
+        <v>565</v>
       </c>
       <c r="N16" s="7">
-        <v>177913</v>
+        <v>616981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>871</v>
+        <v>3049</v>
       </c>
       <c r="D17" s="7">
-        <v>904197</v>
+        <v>3250475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>876</v>
+        <v>2891</v>
       </c>
       <c r="I17" s="7">
-        <v>917531</v>
+        <v>3114421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="7">
+        <v>5940</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6364896</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1747</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1821727</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3649,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3664,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3680,171 +3311,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>160</v>
-      </c>
-      <c r="D19" s="7">
-        <v>176304</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>405</v>
-      </c>
-      <c r="I19" s="7">
-        <v>440677</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>565</v>
-      </c>
-      <c r="N19" s="7">
-        <v>616981</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3049</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3250475</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2891</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3114421</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5940</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6364896</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3857,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2FAE5F-004F-4307-9083-3B480E81A7D1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240297F6-58EB-4496-852F-4E8B8D027DB6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3874,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>7864</v>
+        <v>29624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>12877</v>
+        <v>81359</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N4" s="7">
-        <v>20741</v>
+        <v>110983</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>623</v>
       </c>
       <c r="D5" s="7">
-        <v>108682</v>
+        <v>645176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>102</v>
+        <v>590</v>
       </c>
       <c r="I5" s="7">
-        <v>100483</v>
+        <v>591480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
-        <v>208</v>
+        <v>1213</v>
       </c>
       <c r="N5" s="7">
-        <v>209165</v>
+        <v>1236656</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4092,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4107,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4130,49 +3605,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>21760</v>
+        <v>34613</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I7" s="7">
-        <v>68482</v>
+        <v>111179</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>90242</v>
+        <v>145791</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,49 +3656,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>517</v>
+        <v>916</v>
       </c>
       <c r="D8" s="7">
-        <v>536494</v>
+        <v>987818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>488</v>
+        <v>880</v>
       </c>
       <c r="I8" s="7">
-        <v>490997</v>
+        <v>931734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>1005</v>
+        <v>1796</v>
       </c>
       <c r="N8" s="7">
-        <v>1027491</v>
+        <v>1919553</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4247,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4262,10 +3737,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4279,55 +3754,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>34613</v>
+        <v>29169</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>111179</v>
+        <v>59320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>145791</v>
+        <v>88489</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,49 +3811,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>916</v>
+        <v>668</v>
       </c>
       <c r="D11" s="7">
-        <v>987818</v>
+        <v>730383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>880</v>
+        <v>684</v>
       </c>
       <c r="I11" s="7">
-        <v>931734</v>
+        <v>725691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M11" s="7">
-        <v>1796</v>
+        <v>1352</v>
       </c>
       <c r="N11" s="7">
-        <v>1919553</v>
+        <v>1456074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4402,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4417,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4434,7 +3909,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4443,46 +3918,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>29169</v>
+        <v>28539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>59320</v>
+        <v>80225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>88489</v>
+        <v>108764</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>668</v>
+        <v>904</v>
       </c>
       <c r="D14" s="7">
-        <v>730383</v>
+        <v>909028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>684</v>
+        <v>892</v>
       </c>
       <c r="I14" s="7">
-        <v>725691</v>
+        <v>963554</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
-        <v>1352</v>
+        <v>1796</v>
       </c>
       <c r="N14" s="7">
-        <v>1456074</v>
+        <v>1872582</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4557,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4572,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4589,55 +4064,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>28539</v>
+        <v>121945</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="I16" s="7">
-        <v>80225</v>
+        <v>332083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>95</v>
+        <v>412</v>
       </c>
       <c r="N16" s="7">
-        <v>108764</v>
+        <v>454028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,49 +4121,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>904</v>
+        <v>3111</v>
       </c>
       <c r="D17" s="7">
-        <v>909028</v>
+        <v>3272405</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
-        <v>892</v>
+        <v>3046</v>
       </c>
       <c r="I17" s="7">
-        <v>963554</v>
+        <v>3212459</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
-        <v>1796</v>
+        <v>6157</v>
       </c>
       <c r="N17" s="7">
-        <v>1872582</v>
+        <v>6484864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4712,10 +4187,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4727,10 +4202,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4743,171 +4218,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>120</v>
-      </c>
-      <c r="D19" s="7">
-        <v>121945</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>292</v>
-      </c>
-      <c r="I19" s="7">
-        <v>332083</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M19" s="7">
-        <v>412</v>
-      </c>
-      <c r="N19" s="7">
-        <v>454028</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3111</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3272405</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3046</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3212459</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6157</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6484864</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4920,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36799C94-B5EC-4358-AD7D-EF8983E58F00}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02FEE99-C07F-400B-B140-12101D3230C7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4937,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,49 +4357,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>10780</v>
+        <v>36044</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="I4" s="7">
-        <v>31970</v>
+        <v>127700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
-        <v>84</v>
+        <v>339</v>
       </c>
       <c r="N4" s="7">
-        <v>42750</v>
+        <v>163744</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>91202</v>
+        <v>598524</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>175</v>
+        <v>952</v>
       </c>
       <c r="I5" s="7">
-        <v>98763</v>
+        <v>546443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>277</v>
+        <v>1626</v>
       </c>
       <c r="N5" s="7">
-        <v>189965</v>
+        <v>1144967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634568</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5155,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674143</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5170,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1965</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1308711</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5193,49 +4512,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>27245</v>
+        <v>42898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="I7" s="7">
-        <v>105916</v>
+        <v>127957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="N7" s="7">
-        <v>133161</v>
+        <v>170856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +4563,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>572</v>
+        <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>521687</v>
+        <v>1147813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
-        <v>777</v>
+        <v>1253</v>
       </c>
       <c r="I8" s="7">
-        <v>485352</v>
+        <v>824648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
-        <v>1349</v>
+        <v>2152</v>
       </c>
       <c r="N8" s="7">
-        <v>1007039</v>
+        <v>1972459</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>548932</v>
+        <v>1190711</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5310,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>591268</v>
+        <v>952605</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5325,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2468</v>
       </c>
       <c r="N9" s="7">
-        <v>1140200</v>
+        <v>2143315</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5342,55 +4661,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>46758</v>
+        <v>37098</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>140787</v>
+        <v>280044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
-        <v>316</v>
+        <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>187545</v>
+        <v>317142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +4718,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>899</v>
+        <v>631</v>
       </c>
       <c r="D11" s="7">
-        <v>990292</v>
+        <v>665867</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
-        <v>1253</v>
+        <v>901</v>
       </c>
       <c r="I11" s="7">
-        <v>912867</v>
+        <v>647338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="M11" s="7">
-        <v>2152</v>
+        <v>1532</v>
       </c>
       <c r="N11" s="7">
-        <v>1903159</v>
+        <v>1313205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1037050</v>
+        <v>702965</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5465,10 +4784,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1038</v>
       </c>
       <c r="I12" s="7">
-        <v>1053654</v>
+        <v>927382</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5480,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2468</v>
+        <v>1712</v>
       </c>
       <c r="N12" s="7">
-        <v>2090704</v>
+        <v>1630347</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5497,55 +4816,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>39517</v>
+        <v>57524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="I13" s="7">
-        <v>193318</v>
+        <v>161489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>180</v>
+        <v>363</v>
       </c>
       <c r="N13" s="7">
-        <v>232836</v>
+        <v>219013</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +4873,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>631</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>687407</v>
+        <v>866167</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
-        <v>901</v>
+        <v>1275</v>
       </c>
       <c r="I14" s="7">
-        <v>674294</v>
+        <v>929992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
-        <v>1532</v>
+        <v>2199</v>
       </c>
       <c r="N14" s="7">
-        <v>1361700</v>
+        <v>1796159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>726924</v>
+        <v>923691</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5620,10 +4939,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1038</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>867612</v>
+        <v>1091481</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5635,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1712</v>
+        <v>2562</v>
       </c>
       <c r="N15" s="7">
-        <v>1594536</v>
+        <v>2015172</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5652,55 +4971,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="D16" s="7">
-        <v>61255</v>
+        <v>173564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>284</v>
+        <v>958</v>
       </c>
       <c r="I16" s="7">
-        <v>181299</v>
+        <v>697191</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
-        <v>363</v>
+        <v>1198</v>
       </c>
       <c r="N16" s="7">
-        <v>242554</v>
+        <v>870755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5028,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>924</v>
+        <v>3128</v>
       </c>
       <c r="D17" s="7">
-        <v>900871</v>
+        <v>3278370</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
-        <v>1275</v>
+        <v>4381</v>
       </c>
       <c r="I17" s="7">
-        <v>965168</v>
+        <v>2948420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
-        <v>2199</v>
+        <v>7509</v>
       </c>
       <c r="N17" s="7">
-        <v>1866038</v>
+        <v>6226791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>962126</v>
+        <v>3451934</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5775,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5339</v>
       </c>
       <c r="I18" s="7">
-        <v>1146467</v>
+        <v>3645611</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5790,10 +5109,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2562</v>
+        <v>8707</v>
       </c>
       <c r="N18" s="7">
-        <v>2108592</v>
+        <v>7097546</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5806,171 +5125,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>240</v>
-      </c>
-      <c r="D19" s="7">
-        <v>185555</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H19" s="7">
-        <v>958</v>
-      </c>
-      <c r="I19" s="7">
-        <v>653290</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1198</v>
-      </c>
-      <c r="N19" s="7">
-        <v>838845</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3128</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3191459</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4381</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3136444</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7509</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6327903</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3377014</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5339</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3789734</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8707</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7166748</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
